--- a/DATA_goal/Junction_Flooding_479.xlsx
+++ b/DATA_goal/Junction_Flooding_479.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44810.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44810.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.95</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.95</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.42</v>
+        <v>44.19</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44810.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.42</v>
+        <v>44.16</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.55</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44810.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.33</v>
+        <v>33.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.72</v>
+        <v>27.2</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.26</v>
+        <v>42.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.48</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.58</v>
+        <v>175.78</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.35</v>
+        <v>33.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.42</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.85</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.87</v>
+        <v>38.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_479.xlsx
+++ b/DATA_goal/Junction_Flooding_479.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44810.54861111111</v>
+        <v>45160.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44810.55555555555</v>
+        <v>45160.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.04</v>
+        <v>4.962</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.09</v>
+        <v>4.725</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.53</v>
+        <v>0.514</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>11.511</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.95</v>
+        <v>10.038</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.64</v>
+        <v>4.711</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.95</v>
+        <v>15.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.01</v>
+        <v>7.059</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.7</v>
+        <v>3.446</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.04</v>
+        <v>5.413</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.57</v>
+        <v>6.216</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.16</v>
+        <v>4.88</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.176</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.38</v>
+        <v>3.981</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.39</v>
+        <v>6.564</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.01</v>
+        <v>3.315</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.063</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.022</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>44.19</v>
+        <v>60.97</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.57</v>
+        <v>12.603</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.12</v>
+        <v>3.761</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.98</v>
+        <v>8.180999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.61</v>
+        <v>5.556</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.669</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.67</v>
+        <v>8.266999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.46</v>
+        <v>3.651</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.83</v>
+        <v>4.289</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.45</v>
+        <v>5.985</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.43</v>
+        <v>14.194</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.06</v>
+        <v>2.318</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.6</v>
+        <v>5.206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44810.5625</v>
+        <v>45160.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.13</v>
+        <v>18.655</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.12</v>
+        <v>14.685</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.861</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>41.126</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.2</v>
+        <v>34.343</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.85</v>
+        <v>15.209</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13</v>
+        <v>54.119</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.07</v>
+        <v>23.363</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.63</v>
+        <v>10.661</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.13</v>
+        <v>16.088</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.65</v>
+        <v>17.588</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.13</v>
+        <v>17.472</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.46</v>
+        <v>4.636</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.38</v>
+        <v>14.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.49</v>
+        <v>21.568</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.98</v>
+        <v>12.227</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.168</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.438</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.16</v>
+        <v>221.336</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>41.959</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.12</v>
+        <v>13.576</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.04</v>
+        <v>28.203</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.53</v>
+        <v>15.641</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.46</v>
+        <v>2.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.14</v>
+        <v>27.378</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.55</v>
+        <v>12.247</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.73</v>
+        <v>11.445</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.23</v>
+        <v>12.193</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.27</v>
+        <v>18.093</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.18</v>
+        <v>49.073</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.98</v>
+        <v>7.891</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.7</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44810.56944444445</v>
+        <v>45160.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.22</v>
+        <v>8.69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.44</v>
+        <v>7.04</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.32</v>
+        <v>19.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.2</v>
+        <v>16.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.67</v>
+        <v>7.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.57</v>
+        <v>30.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.48</v>
+        <v>11.14</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="L5" s="4" t="n">
         <v>8.59</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>13.34</v>
-      </c>
       <c r="M5" s="4" t="n">
-        <v>14.31</v>
+        <v>8.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.16</v>
+        <v>2.15</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.03</v>
+        <v>6.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.91</v>
+        <v>10.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.12</v>
+        <v>5.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.78</v>
+        <v>101.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.52</v>
+        <v>20.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.1</v>
+        <v>6.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.42</v>
+        <v>13.47</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.08</v>
+        <v>7.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.59</v>
+        <v>0.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.93</v>
+        <v>14.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.65</v>
+        <v>5.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.85</v>
+        <v>5.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.42</v>
+        <v>5.67</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.32</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.71</v>
+        <v>28.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.48</v>
+        <v>3.75</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.73</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44810.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.25</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.81</v>
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_479.xlsx
+++ b/DATA_goal/Junction_Flooding_479.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,15 +448,15 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -468,8 +468,8 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45160.50694444445</v>
+        <v>44810.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.284</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.265</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.768</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.407</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.715</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.079</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.361</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.858</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.662</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.216</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.246</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.306</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.973</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.629</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.538</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.613</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.117</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.053</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.452</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.195</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.364</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.727</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.825</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.701</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.538</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.243</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.732</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.372</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.518000000000001</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.204</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45160.51388888889</v>
+        <v>44810.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.962</v>
+        <v>4.044</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.725</v>
+        <v>3.091</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.514</v>
+        <v>0.534</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.511</v>
+        <v>9.036</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.038</v>
+        <v>6.949</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.711</v>
+        <v>2.642</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.63</v>
+        <v>12.954</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.059</v>
+        <v>5.006</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.446</v>
+        <v>2.703</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.413</v>
+        <v>3.044</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.216</v>
+        <v>3.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.88</v>
+        <v>4.164</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.176</v>
+        <v>1.615</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.981</v>
+        <v>3.384</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.564</v>
+        <v>4.395</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.315</v>
+        <v>3.006</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.063</v>
+        <v>0.182</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.022</v>
+        <v>0.476</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.97</v>
+        <v>44.188</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.603</v>
+        <v>9.565</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.761</v>
+        <v>3.123</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.180999999999999</v>
+        <v>5.975</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.556</v>
+        <v>3.606</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.669</v>
+        <v>0.474</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.266999999999999</v>
+        <v>7.666</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.651</v>
+        <v>2.46</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.289</v>
+        <v>2.826</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.08</v>
+        <v>3.4</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.985</v>
+        <v>4.451</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.237</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.194</v>
+        <v>12.426</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.318</v>
+        <v>2.057</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.206</v>
+        <v>3.604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45160.52083333334</v>
+        <v>44810.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.655</v>
+        <v>4.127</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.685</v>
+        <v>3.116</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.861</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.126</v>
+        <v>9.214</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.343</v>
+        <v>7.195</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.209</v>
+        <v>2.855</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.119</v>
+        <v>12.996</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.363</v>
+        <v>5.065</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.661</v>
+        <v>2.628</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.088</v>
+        <v>3.128</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.588</v>
+        <v>3.654</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.472</v>
+        <v>4.131</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.636</v>
+        <v>1.463</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.66</v>
+        <v>3.384</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.568</v>
+        <v>4.49</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.227</v>
+        <v>2.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.168</v>
+        <v>0.111</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.438</v>
+        <v>0.357</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.336</v>
+        <v>44.161</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.959</v>
+        <v>9.472</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.576</v>
+        <v>3.123</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.203</v>
+        <v>6.036</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.641</v>
+        <v>3.529</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.01</v>
+        <v>0.458</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.378</v>
+        <v>7.137</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.247</v>
+        <v>2.553</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.445</v>
+        <v>2.729</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.193</v>
+        <v>3.234</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.093</v>
+        <v>4.268</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.175</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.073</v>
+        <v>12.179</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.891</v>
+        <v>1.977</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.354</v>
+        <v>3.697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45160.52777777778</v>
+        <v>44810.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.69</v>
+        <v>15.222</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.04</v>
+        <v>11.438</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.694</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.35</v>
+        <v>33.324</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.25</v>
+        <v>27.203</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.23</v>
+        <v>11.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.91</v>
+        <v>42.568</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.14</v>
+        <v>18.48</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.15</v>
+        <v>8.585000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.77</v>
+        <v>12.163</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.59</v>
+        <v>13.339</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.23</v>
+        <v>14.313</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.15</v>
+        <v>4.155</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.85</v>
+        <v>12.031</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.3</v>
+        <v>16.912</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.77</v>
+        <v>10.118</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.175</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.625</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.25</v>
+        <v>175.777</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.11</v>
+        <v>33.523</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.35</v>
+        <v>11.105</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.47</v>
+        <v>22.42</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.63</v>
+        <v>12.082</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.96</v>
+        <v>1.585</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.94</v>
+        <v>21.928</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.82</v>
+        <v>9.651999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.62</v>
+        <v>8.853</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.67</v>
+        <v>10.425</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>14.325</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.342</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.32</v>
+        <v>38.709</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.75</v>
+        <v>6.485</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.24</v>
+        <v>13.725</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44810.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_479.xlsx
+++ b/DATA_goal/Junction_Flooding_479.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,15 +448,15 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -468,8 +468,8 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44810.54861111111</v>
+        <v>45160.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44810.55555555555</v>
+        <v>45160.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.044</v>
+        <v>4.962</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.091</v>
+        <v>4.725</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.534</v>
+        <v>0.514</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.036</v>
+        <v>11.511</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.949</v>
+        <v>10.038</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.642</v>
+        <v>4.711</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.954</v>
+        <v>15.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.006</v>
+        <v>7.059</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.703</v>
+        <v>3.446</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.044</v>
+        <v>5.413</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.57</v>
+        <v>6.216</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.164</v>
+        <v>4.88</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.615</v>
+        <v>1.176</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.384</v>
+        <v>3.981</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.395</v>
+        <v>6.564</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.006</v>
+        <v>3.315</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.182</v>
+        <v>0.063</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.476</v>
+        <v>0.022</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>44.188</v>
+        <v>60.97</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.565</v>
+        <v>12.603</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.123</v>
+        <v>3.761</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.975</v>
+        <v>8.180999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.606</v>
+        <v>5.556</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.474</v>
+        <v>0.669</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.666</v>
+        <v>8.266999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.46</v>
+        <v>3.651</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.826</v>
+        <v>4.289</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.451</v>
+        <v>5.985</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.426</v>
+        <v>14.194</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.057</v>
+        <v>2.318</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.604</v>
+        <v>5.206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44810.5625</v>
+        <v>45160.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.127</v>
+        <v>18.655</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.116</v>
+        <v>14.685</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.861</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.214</v>
+        <v>41.126</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.195</v>
+        <v>34.343</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.855</v>
+        <v>15.209</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.996</v>
+        <v>54.119</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.065</v>
+        <v>23.363</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.628</v>
+        <v>10.661</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.128</v>
+        <v>16.088</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.654</v>
+        <v>17.588</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.131</v>
+        <v>17.472</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.463</v>
+        <v>4.636</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.384</v>
+        <v>14.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.49</v>
+        <v>21.568</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.98</v>
+        <v>12.227</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.111</v>
+        <v>0.168</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.357</v>
+        <v>0.438</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.161</v>
+        <v>221.336</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.472</v>
+        <v>41.959</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.123</v>
+        <v>13.576</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.036</v>
+        <v>28.203</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.529</v>
+        <v>15.641</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.458</v>
+        <v>2.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.137</v>
+        <v>27.378</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.553</v>
+        <v>12.247</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.729</v>
+        <v>11.445</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.234</v>
+        <v>12.193</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.268</v>
+        <v>18.093</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.179</v>
+        <v>49.073</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.977</v>
+        <v>7.891</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.697</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44810.56944444445</v>
+        <v>45160.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.222</v>
+        <v>8.69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.438</v>
+        <v>7.04</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.694</v>
+        <v>0.47</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.324</v>
+        <v>19.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.203</v>
+        <v>16.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.67</v>
+        <v>7.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.568</v>
+        <v>30.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.48</v>
+        <v>11.14</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.585000000000001</v>
+        <v>5.15</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.163</v>
+        <v>7.77</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.339</v>
+        <v>8.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.313</v>
+        <v>8.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.155</v>
+        <v>2.15</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.031</v>
+        <v>6.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.912</v>
+        <v>10.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.118</v>
+        <v>5.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.175</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.625</v>
+        <v>0.16</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.777</v>
+        <v>101.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.523</v>
+        <v>20.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.105</v>
+        <v>6.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.42</v>
+        <v>13.47</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.082</v>
+        <v>7.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.585</v>
+        <v>0.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.928</v>
+        <v>14.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.651999999999999</v>
+        <v>5.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.853</v>
+        <v>5.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.425</v>
+        <v>5.67</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.325</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.342</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.709</v>
+        <v>28.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.485</v>
+        <v>3.75</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.725</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44810.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.25</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.81</v>
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>
